--- a/artfynd/A 57608-2022.xlsx
+++ b/artfynd/A 57608-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65351780</v>
+        <v>105314427</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>89403</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>597808.9200852317</v>
+        <v>597334.6767899203</v>
       </c>
       <c r="R2" t="n">
-        <v>6823341.78750988</v>
+        <v>6823787.505707432</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,38 +777,30 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>skiktad, äldre granskog med inslag av gamla granar</t>
-        </is>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1 substratenheter # grov asp</t>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65351767</v>
+        <v>105310135</v>
       </c>
       <c r="B3" t="n">
-        <v>78503</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,41 +809,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>597441.0718566766</v>
+        <v>597353.1981236319</v>
       </c>
       <c r="R3" t="n">
-        <v>6823318.05967632</v>
+        <v>6823774.665212719</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -902,38 +894,30 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>lövrik, bördig äldre barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>1 substratenheter # grov asp</t>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65351821</v>
+        <v>105310939</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>73631</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,37 +930,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>6426</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>597592.9796397544</v>
+        <v>597380.100740873</v>
       </c>
       <c r="R4" t="n">
-        <v>6823456.915088123</v>
+        <v>6823769.695236638</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1000,7 +984,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1010,7 +994,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1027,30 +1011,30 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>äldre granskog med viss skiktning, örtstråk</t>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65351761</v>
+        <v>105310938</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,37 +1047,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>597375.1150490821</v>
+        <v>597379.1188690141</v>
       </c>
       <c r="R5" t="n">
-        <v>6823300.933554878</v>
+        <v>6823770.621993233</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1117,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1144,38 +1128,30 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>olikåldrig barrskog med inslag av gamla  träd</t>
-        </is>
-      </c>
-      <c r="AN5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>10 substratenheter # gamla granar</t>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65351779</v>
+        <v>105310940</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,37 +1164,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>597808.9200852317</v>
+        <v>597345.6685440572</v>
       </c>
       <c r="R6" t="n">
-        <v>6823341.78750988</v>
+        <v>6823804.515713543</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1242,7 +1218,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1252,7 +1228,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1269,38 +1245,35 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>äldre, skiktad granskog med block och inslag av gammal gran</t>
-        </is>
-      </c>
-      <c r="AN6" t="n">
-        <v>1</v>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1 substratenheter # granlåga av gammal gran</t>
+          <t>Rikligt i hela beståndet.</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65351781</v>
+        <v>65351780</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1313,21 +1286,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1337,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>597794.9687184019</v>
+        <v>597808.9200852317</v>
       </c>
       <c r="R7" t="n">
-        <v>6823361.915009957</v>
+        <v>6823341.78750988</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1396,7 +1369,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>naturskogsartad barrskog</t>
+          <t>skiktad, äldre granskog med inslag av gamla granar</t>
         </is>
       </c>
       <c r="AN7" t="n">
@@ -1404,7 +1377,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1 substratenheter # förrötad granlåga</t>
+          <t>1 substratenheter # grov asp</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1422,7 +1395,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65351769</v>
+        <v>65351767</v>
       </c>
       <c r="B8" t="n">
         <v>78503</v>
@@ -1462,10 +1435,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>597441.8288281632</v>
+        <v>597441.0718566766</v>
       </c>
       <c r="R8" t="n">
-        <v>6823359.123509172</v>
+        <v>6823318.05967632</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1521,15 +1494,15 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>lövrik, bördig, äldre barrblandskog</t>
+          <t>lövrik, bördig äldre barrblandskog</t>
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7 substratenheter # grova aspar</t>
+          <t>1 substratenheter # grov asp</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1547,10 +1520,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65351763</v>
+        <v>65351821</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1559,25 +1532,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1587,10 +1560,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>597375.0297432946</v>
+        <v>597592.9796397544</v>
       </c>
       <c r="R9" t="n">
-        <v>6823320.97532447</v>
+        <v>6823456.915088123</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1646,15 +1619,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>olikåldrig barrblandskog med inslag av gamla träd</t>
-        </is>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>1 substratenheter # granlåga</t>
+          <t>äldre granskog med viss skiktning, örtstråk</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1672,10 +1637,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65351822</v>
+        <v>65351761</v>
       </c>
       <c r="B10" t="n">
-        <v>78479</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1684,25 +1649,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>392</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1712,10 +1677,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>597337.8932515796</v>
+        <v>597375.1150490821</v>
       </c>
       <c r="R10" t="n">
-        <v>6823332.817260335</v>
+        <v>6823300.933554878</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1771,15 +1736,15 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>kant av olikåldrig, asprik barrblandskog</t>
+          <t>olikåldrig barrskog med inslag av gamla  träd</t>
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1 substratenheter # rikligt på gammal grov asp</t>
+          <t>10 substratenheter # gamla granar</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1797,10 +1762,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65351760</v>
+        <v>65351779</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1813,21 +1778,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1837,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>597336.0063506789</v>
+        <v>597808.9200852317</v>
       </c>
       <c r="R11" t="n">
-        <v>6823246.860216191</v>
+        <v>6823341.78750988</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1896,15 +1861,15 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>luckig, äldre barrblandskog</t>
+          <t>äldre, skiktad granskog med block och inslag av gammal gran</t>
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>5 substratenheter # äldre granar</t>
+          <t>1 substratenheter # granlåga av gammal gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1922,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65351765</v>
+        <v>65351781</v>
       </c>
       <c r="B12" t="n">
-        <v>77541</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1938,21 +1903,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1962,10 +1927,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>597334.9078039499</v>
+        <v>597794.9687184019</v>
       </c>
       <c r="R12" t="n">
-        <v>6823285.963676259</v>
+        <v>6823361.915009957</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2021,15 +1986,15 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>äldre barrblandskog</t>
+          <t>naturskogsartad barrskog</t>
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>10 substratenheter # äldre granar</t>
+          <t>1 substratenheter # förrötad granlåga</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2047,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>65351775</v>
+        <v>65351769</v>
       </c>
       <c r="B13" t="n">
-        <v>78527</v>
+        <v>78503</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2063,21 +2028,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229497</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2087,10 +2052,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>597660.0923932524</v>
+        <v>597441.8288281632</v>
       </c>
       <c r="R13" t="n">
-        <v>6823314.204304425</v>
+        <v>6823359.123509172</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2146,15 +2111,15 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>äldre högrest granskog</t>
+          <t>lövrik, bördig, äldre barrblandskog</t>
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2 substratenheter # grova aspar</t>
+          <t>7 substratenheter # grova aspar</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2172,10 +2137,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105314427</v>
+        <v>65351763</v>
       </c>
       <c r="B14" t="n">
-        <v>89403</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2184,41 +2149,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>597334.6767899203</v>
+        <v>597375.0297432946</v>
       </c>
       <c r="R14" t="n">
-        <v>6823787.505707432</v>
+        <v>6823320.97532447</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2242,7 +2207,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2252,7 +2217,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2269,30 +2234,38 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>olikåldrig barrblandskog med inslag av gamla träd</t>
+        </is>
+      </c>
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>1 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105310135</v>
+        <v>65351822</v>
       </c>
       <c r="B15" t="n">
-        <v>96334</v>
+        <v>78479</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2305,37 +2278,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>392</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>597353.1981236319</v>
+        <v>597337.8932515796</v>
       </c>
       <c r="R15" t="n">
-        <v>6823774.665212719</v>
+        <v>6823332.817260335</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2359,7 +2332,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2369,7 +2342,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2386,30 +2359,38 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>kant av olikåldrig, asprik barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>1 substratenheter # rikligt på gammal grov asp</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105310939</v>
+        <v>65351760</v>
       </c>
       <c r="B16" t="n">
-        <v>73631</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2418,115 +2399,123 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>597380.100740873</v>
+        <v>597336.0063506789</v>
       </c>
       <c r="R16" t="n">
-        <v>6823769.695236638</v>
+        <v>6823246.860216191</v>
       </c>
       <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Hudiksvall</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Enånger</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2017-03-24</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2017-03-24</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>luckig, äldre barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN16" t="n">
         <v>5</v>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Hudiksvall</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Hälsingland</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Enånger</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2022-10-27</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2022-10-27</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>5 substratenheter # äldre granar</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>105310938</v>
+        <v>65351765</v>
       </c>
       <c r="B17" t="n">
-        <v>73693</v>
+        <v>77541</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2539,37 +2528,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>597379.1188690141</v>
+        <v>597334.9078039499</v>
       </c>
       <c r="R17" t="n">
-        <v>6823770.621993233</v>
+        <v>6823285.963676259</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2593,7 +2582,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2603,7 +2592,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2620,30 +2609,38 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>äldre barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>10 substratenheter # äldre granar</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>105310940</v>
+        <v>65351775</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>78527</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2652,41 +2649,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>597345.6685440572</v>
+        <v>597660.0923932524</v>
       </c>
       <c r="R18" t="n">
-        <v>6823804.515713543</v>
+        <v>6823314.204304425</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2710,7 +2707,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2720,7 +2717,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2737,25 +2734,28 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>äldre högrest granskog</t>
+        </is>
+      </c>
+      <c r="AN18" t="n">
+        <v>2</v>
+      </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Rikligt i hela beståndet.</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+          <t>2 substratenheter # grova aspar</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 57608-2022.xlsx
+++ b/artfynd/A 57608-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105314427</v>
+        <v>65351780</v>
       </c>
       <c r="B2" t="n">
-        <v>89403</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>597334.6767899203</v>
+        <v>597808.9200852317</v>
       </c>
       <c r="R2" t="n">
-        <v>6823787.505707432</v>
+        <v>6823341.78750988</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,30 +777,38 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>skiktad, äldre granskog med inslag av gamla granar</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>1 substratenheter # grov asp</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105310135</v>
+        <v>65351767</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>78503</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,41 +817,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>597353.1981236319</v>
+        <v>597441.0718566766</v>
       </c>
       <c r="R3" t="n">
-        <v>6823774.665212719</v>
+        <v>6823318.05967632</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -894,30 +902,38 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>lövrik, bördig äldre barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>1 substratenheter # grov asp</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105310939</v>
+        <v>65351821</v>
       </c>
       <c r="B4" t="n">
-        <v>73631</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,37 +946,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6426</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>597380.100740873</v>
+        <v>597592.9796397544</v>
       </c>
       <c r="R4" t="n">
-        <v>6823769.695236638</v>
+        <v>6823456.915088123</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -984,7 +1000,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -994,7 +1010,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1011,30 +1027,30 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>äldre granskog med viss skiktning, örtstråk</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105310938</v>
+        <v>65351761</v>
       </c>
       <c r="B5" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,37 +1063,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>597379.1188690141</v>
+        <v>597375.1150490821</v>
       </c>
       <c r="R5" t="n">
-        <v>6823770.621993233</v>
+        <v>6823300.933554878</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,30 +1144,38 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>olikåldrig barrskog med inslag av gamla  träd</t>
+        </is>
+      </c>
+      <c r="AN5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>10 substratenheter # gamla granar</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105310940</v>
+        <v>65351779</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,37 +1188,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Enångersån, Hls</t>
+          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>597345.6685440572</v>
+        <v>597808.9200852317</v>
       </c>
       <c r="R6" t="n">
-        <v>6823804.515713543</v>
+        <v>6823341.78750988</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1218,7 +1242,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1228,7 +1252,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2017-03-24</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1245,35 +1269,38 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>äldre, skiktad granskog med block och inslag av gammal gran</t>
+        </is>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Rikligt i hela beståndet.</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
+          <t>1 substratenheter # granlåga av gammal gran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65351780</v>
+        <v>65351781</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,21 +1313,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1310,10 +1337,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>597808.9200852317</v>
+        <v>597794.9687184019</v>
       </c>
       <c r="R7" t="n">
-        <v>6823341.78750988</v>
+        <v>6823361.915009957</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1369,7 +1396,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>skiktad, äldre granskog med inslag av gamla granar</t>
+          <t>naturskogsartad barrskog</t>
         </is>
       </c>
       <c r="AN7" t="n">
@@ -1377,7 +1404,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1 substratenheter # grov asp</t>
+          <t>1 substratenheter # förrötad granlåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1395,7 +1422,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65351767</v>
+        <v>65351769</v>
       </c>
       <c r="B8" t="n">
         <v>78503</v>
@@ -1435,10 +1462,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>597441.0718566766</v>
+        <v>597441.8288281632</v>
       </c>
       <c r="R8" t="n">
-        <v>6823318.05967632</v>
+        <v>6823359.123509172</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1494,15 +1521,15 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>lövrik, bördig äldre barrblandskog</t>
+          <t>lövrik, bördig, äldre barrblandskog</t>
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1 substratenheter # grov asp</t>
+          <t>7 substratenheter # grova aspar</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1520,10 +1547,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65351821</v>
+        <v>65351763</v>
       </c>
       <c r="B9" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1532,25 +1559,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1560,10 +1587,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>597592.9796397544</v>
+        <v>597375.0297432946</v>
       </c>
       <c r="R9" t="n">
-        <v>6823456.915088123</v>
+        <v>6823320.97532447</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1619,7 +1646,15 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>äldre granskog med viss skiktning, örtstråk</t>
+          <t>olikåldrig barrblandskog med inslag av gamla träd</t>
+        </is>
+      </c>
+      <c r="AN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>1 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1637,10 +1672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65351761</v>
+        <v>65351822</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>78479</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1649,25 +1684,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>392</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1677,10 +1712,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>597375.1150490821</v>
+        <v>597337.8932515796</v>
       </c>
       <c r="R10" t="n">
-        <v>6823300.933554878</v>
+        <v>6823332.817260335</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1736,15 +1771,15 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>olikåldrig barrskog med inslag av gamla  träd</t>
+          <t>kant av olikåldrig, asprik barrblandskog</t>
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>10 substratenheter # gamla granar</t>
+          <t>1 substratenheter # rikligt på gammal grov asp</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1762,10 +1797,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65351779</v>
+        <v>65351760</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1778,21 +1813,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1802,10 +1837,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>597808.9200852317</v>
+        <v>597336.0063506789</v>
       </c>
       <c r="R11" t="n">
-        <v>6823341.78750988</v>
+        <v>6823246.860216191</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1861,15 +1896,15 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>äldre, skiktad granskog med block och inslag av gammal gran</t>
+          <t>luckig, äldre barrblandskog</t>
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1 substratenheter # granlåga av gammal gran</t>
+          <t>5 substratenheter # äldre granar</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1887,10 +1922,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65351781</v>
+        <v>65351765</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>77541</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1903,21 +1938,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1927,10 +1962,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>597794.9687184019</v>
+        <v>597334.9078039499</v>
       </c>
       <c r="R12" t="n">
-        <v>6823361.915009957</v>
+        <v>6823285.963676259</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1986,15 +2021,15 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>naturskogsartad barrskog</t>
+          <t>äldre barrblandskog</t>
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1 substratenheter # förrötad granlåga</t>
+          <t>10 substratenheter # äldre granar</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2012,10 +2047,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>65351769</v>
+        <v>65351775</v>
       </c>
       <c r="B13" t="n">
-        <v>78503</v>
+        <v>78527</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2028,21 +2063,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6456</v>
+        <v>229497</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2052,10 +2087,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>597441.8288281632</v>
+        <v>597660.0923932524</v>
       </c>
       <c r="R13" t="n">
-        <v>6823359.123509172</v>
+        <v>6823314.204304425</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2111,15 +2146,15 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>lövrik, bördig, äldre barrblandskog</t>
+          <t>äldre högrest granskog</t>
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>7 substratenheter # grova aspar</t>
+          <t>2 substratenheter # grova aspar</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2137,10 +2172,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65351763</v>
+        <v>105314427</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>89403</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2149,41 +2184,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>597375.0297432946</v>
+        <v>597334.6767899203</v>
       </c>
       <c r="R14" t="n">
-        <v>6823320.97532447</v>
+        <v>6823787.505707432</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2207,7 +2242,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2217,7 +2252,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2234,38 +2269,30 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>olikåldrig barrblandskog med inslag av gamla träd</t>
-        </is>
-      </c>
-      <c r="AN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>1 substratenheter # granlåga</t>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>65351822</v>
+        <v>105310135</v>
       </c>
       <c r="B15" t="n">
-        <v>78479</v>
+        <v>96334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2278,37 +2305,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>392</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>597337.8932515796</v>
+        <v>597353.1981236319</v>
       </c>
       <c r="R15" t="n">
-        <v>6823332.817260335</v>
+        <v>6823774.665212719</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2332,7 +2359,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2342,7 +2369,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2359,38 +2386,30 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>kant av olikåldrig, asprik barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>1 substratenheter # rikligt på gammal grov asp</t>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>65351760</v>
+        <v>105310939</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>73631</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2399,41 +2418,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>597336.0063506789</v>
+        <v>597380.100740873</v>
       </c>
       <c r="R16" t="n">
-        <v>6823246.860216191</v>
+        <v>6823769.695236638</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2457,7 +2476,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2467,7 +2486,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2484,38 +2503,30 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>luckig, äldre barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>5 substratenheter # äldre granar</t>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>65351765</v>
+        <v>105310938</v>
       </c>
       <c r="B17" t="n">
-        <v>77541</v>
+        <v>73693</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,37 +2539,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>597334.9078039499</v>
+        <v>597379.1188690141</v>
       </c>
       <c r="R17" t="n">
-        <v>6823285.963676259</v>
+        <v>6823770.621993233</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2582,7 +2593,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2592,7 +2603,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2609,38 +2620,30 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>äldre barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>10 substratenheter # äldre granar</t>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>65351775</v>
+        <v>105310940</v>
       </c>
       <c r="B18" t="n">
-        <v>78527</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2649,41 +2652,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>229497</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Enångersån, S om, mellan Hästberget och kraftledning, Hls</t>
+          <t>Enångersån, Hls</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>597660.0923932524</v>
+        <v>597345.6685440572</v>
       </c>
       <c r="R18" t="n">
-        <v>6823314.204304425</v>
+        <v>6823804.515713543</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2707,7 +2710,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2717,7 +2720,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2017-03-24</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2734,28 +2737,25 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>äldre högrest granskog</t>
-        </is>
-      </c>
-      <c r="AN18" t="n">
-        <v>2</v>
-      </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2 substratenheter # grova aspar</t>
+          <t>Rikligt i hela beståndet.</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
